--- a/fCI-075.xlsx
+++ b/fCI-075.xlsx
@@ -8,33 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\etudes20\PycharmProjects\Trial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF027071-1DDB-4FC1-84E4-B2848FCE9E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C2DD10-4B12-4BC5-8183-8E8F06DA6287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FCI-075" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'FCI-075'!$A$1:$B$103</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'FCI-075'!$A$1:$B$87</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="97">
   <si>
     <t xml:space="preserve">N° </t>
   </si>
@@ -42,286 +31,283 @@
     <t>FCI</t>
   </si>
   <si>
+    <t>21464/638</t>
+  </si>
+  <si>
+    <t>F28208180521</t>
+  </si>
+  <si>
     <t>21464/641</t>
   </si>
   <si>
-    <t>F28208180521</t>
+    <t>21464/0125</t>
+  </si>
+  <si>
+    <t>21464/640</t>
+  </si>
+  <si>
+    <t>21464/419826</t>
+  </si>
+  <si>
+    <t>21464/419829</t>
+  </si>
+  <si>
+    <t>21464/620</t>
+  </si>
+  <si>
+    <t>21464/637</t>
+  </si>
+  <si>
+    <t>21464/635</t>
+  </si>
+  <si>
+    <t>21464/634</t>
+  </si>
+  <si>
+    <t>21464/621</t>
+  </si>
+  <si>
+    <t>21464/622</t>
+  </si>
+  <si>
+    <t>21464/632</t>
+  </si>
+  <si>
+    <t>21464/629</t>
+  </si>
+  <si>
+    <t>21464/419827</t>
+  </si>
+  <si>
+    <t>21464/623</t>
+  </si>
+  <si>
+    <t>21464/636</t>
   </si>
   <si>
     <t>21464/633</t>
   </si>
   <si>
+    <t>21464/628</t>
+  </si>
+  <si>
+    <t>21464/419828</t>
+  </si>
+  <si>
+    <t>21464/630</t>
+  </si>
+  <si>
     <t>21464/4205</t>
   </si>
   <si>
-    <t>21464/622</t>
-  </si>
-  <si>
-    <t>21464/623</t>
-  </si>
-  <si>
-    <t>21464/637</t>
-  </si>
-  <si>
-    <t>21464/630</t>
-  </si>
-  <si>
-    <t>21464/634</t>
-  </si>
-  <si>
-    <t>21464/635</t>
-  </si>
-  <si>
-    <t>21464/632</t>
-  </si>
-  <si>
-    <t>21464/640</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
     <t>21464/624</t>
   </si>
   <si>
-    <t>21464/419828</t>
-  </si>
-  <si>
-    <t>21464/636</t>
-  </si>
-  <si>
-    <t>21464/620</t>
-  </si>
-  <si>
-    <t>21464/621</t>
-  </si>
-  <si>
-    <t>21464/419827</t>
-  </si>
-  <si>
-    <t>21464/419829</t>
-  </si>
-  <si>
-    <t>21464/419826</t>
-  </si>
-  <si>
-    <t>21464/0125</t>
-  </si>
-  <si>
-    <t>21464/628</t>
-  </si>
-  <si>
-    <t>21464/638</t>
-  </si>
-  <si>
-    <t>21464/629</t>
+    <t>F77952280521</t>
+  </si>
+  <si>
+    <t>21464/592</t>
+  </si>
+  <si>
+    <t>21464/419832</t>
   </si>
   <si>
     <t>21464/593</t>
   </si>
   <si>
-    <t>F77952280521</t>
-  </si>
-  <si>
-    <t>21464/592</t>
-  </si>
-  <si>
-    <t>21464/419832</t>
-  </si>
-  <si>
     <t>21464/419831</t>
   </si>
   <si>
     <t>F78532280521</t>
   </si>
   <si>
+    <t>21464/419824</t>
+  </si>
+  <si>
+    <t>21464/626</t>
+  </si>
+  <si>
+    <t>21464/642</t>
+  </si>
+  <si>
+    <t>21464/643</t>
+  </si>
+  <si>
+    <t>21464/603</t>
+  </si>
+  <si>
+    <t>21464/619</t>
+  </si>
+  <si>
     <t>21464/602</t>
   </si>
   <si>
-    <t>21464/603</t>
-  </si>
-  <si>
-    <t>21464/419824</t>
-  </si>
-  <si>
-    <t>21464/643</t>
-  </si>
-  <si>
-    <t>21464/626</t>
-  </si>
-  <si>
-    <t>21464/619</t>
-  </si>
-  <si>
-    <t>21464/642</t>
-  </si>
-  <si>
     <t>21464/188</t>
   </si>
   <si>
     <t>F78741280521</t>
   </si>
   <si>
+    <t>21464/766</t>
+  </si>
+  <si>
+    <t>21464/400476</t>
+  </si>
+  <si>
+    <t>21464/770</t>
+  </si>
+  <si>
+    <t>21464/419931</t>
+  </si>
+  <si>
+    <t>21464/599</t>
+  </si>
+  <si>
+    <t>21464/192</t>
+  </si>
+  <si>
+    <t>21464/772</t>
+  </si>
+  <si>
     <t>21464/419929</t>
   </si>
   <si>
-    <t>21464/772</t>
-  </si>
-  <si>
-    <t>21464/766</t>
-  </si>
-  <si>
-    <t>21464/770</t>
+    <t>21464/765</t>
+  </si>
+  <si>
+    <t>21464/711</t>
   </si>
   <si>
     <t>21464/769</t>
   </si>
   <si>
-    <t>21464/419931</t>
+    <t>21464/419932</t>
+  </si>
+  <si>
+    <t>21464/419930</t>
   </si>
   <si>
     <t>21464/184</t>
   </si>
   <si>
-    <t>21464/400476</t>
-  </si>
-  <si>
-    <t>21464/192</t>
+    <t>21464/419928</t>
   </si>
   <si>
     <t>21464/768</t>
   </si>
   <si>
-    <t>21464/711</t>
-  </si>
-  <si>
-    <t>21464/765</t>
-  </si>
-  <si>
-    <t>21464/419932</t>
-  </si>
-  <si>
-    <t>21464/599</t>
-  </si>
-  <si>
-    <t>21464/419930</t>
-  </si>
-  <si>
-    <t>21464/419928</t>
-  </si>
-  <si>
     <t>F79384280521</t>
   </si>
   <si>
+    <t>21464/607</t>
+  </si>
+  <si>
+    <t>21464/419924</t>
+  </si>
+  <si>
+    <t>21464/419925</t>
+  </si>
+  <si>
+    <t>21464/419923</t>
+  </si>
+  <si>
+    <t>21464/419926</t>
+  </si>
+  <si>
     <t>21464/419927</t>
   </si>
   <si>
-    <t>21464/607</t>
-  </si>
-  <si>
-    <t>21464/419924</t>
-  </si>
-  <si>
-    <t>21464/419926</t>
-  </si>
-  <si>
-    <t>21464/419923</t>
-  </si>
-  <si>
-    <t>21464/419925</t>
-  </si>
-  <si>
     <t>21464/604</t>
   </si>
   <si>
+    <t>21464/608</t>
+  </si>
+  <si>
+    <t>F79690280521</t>
+  </si>
+  <si>
+    <t>21464/613</t>
+  </si>
+  <si>
     <t>21464/609</t>
   </si>
   <si>
-    <t>F79690280521</t>
-  </si>
-  <si>
-    <t>21464/608</t>
+    <t>21464/916</t>
+  </si>
+  <si>
+    <t>21464/419922</t>
+  </si>
+  <si>
+    <t>21464/639</t>
+  </si>
+  <si>
+    <t>21464/419919</t>
+  </si>
+  <si>
+    <t>21464/419917</t>
+  </si>
+  <si>
+    <t>21464/419921</t>
+  </si>
+  <si>
+    <t>21464/419918</t>
+  </si>
+  <si>
+    <t>21464/419920</t>
+  </si>
+  <si>
+    <t>21464/922</t>
+  </si>
+  <si>
+    <t>21464/591</t>
   </si>
   <si>
     <t>21464/921</t>
   </si>
   <si>
-    <t>21464/419921</t>
+    <t>21464/615</t>
+  </si>
+  <si>
+    <t>21464/929</t>
+  </si>
+  <si>
+    <t>21464/992</t>
   </si>
   <si>
     <t>21464/610</t>
   </si>
   <si>
-    <t>21464/639</t>
-  </si>
-  <si>
-    <t>21464/613</t>
-  </si>
-  <si>
-    <t>21464/922</t>
-  </si>
-  <si>
-    <t>21464/419918</t>
-  </si>
-  <si>
-    <t>21464/419919</t>
-  </si>
-  <si>
-    <t>21464/419917</t>
-  </si>
-  <si>
-    <t>21464/916</t>
-  </si>
-  <si>
-    <t>21464/992</t>
-  </si>
-  <si>
-    <t>21464/615</t>
-  </si>
-  <si>
-    <t>21464/591</t>
-  </si>
-  <si>
-    <t>21464/419920</t>
-  </si>
-  <si>
-    <t>21464/419922</t>
-  </si>
-  <si>
-    <t>21464/929</t>
-  </si>
-  <si>
     <t>F79716280521</t>
   </si>
   <si>
+    <t>21464/611</t>
+  </si>
+  <si>
+    <t>21464/614</t>
+  </si>
+  <si>
+    <t>21464/910</t>
+  </si>
+  <si>
+    <t>21464/605</t>
+  </si>
+  <si>
+    <t>21464/612</t>
+  </si>
+  <si>
     <t>21464/4170</t>
   </si>
   <si>
-    <t>21464/611</t>
-  </si>
-  <si>
-    <t>21464/605</t>
-  </si>
-  <si>
-    <t>21464/614</t>
-  </si>
-  <si>
-    <t>21464/910</t>
-  </si>
-  <si>
-    <t>21464/612</t>
-  </si>
-  <si>
     <t>21464/909</t>
   </si>
   <si>
     <t>21464/419908</t>
   </si>
   <si>
+    <t>21464/478507</t>
+  </si>
+  <si>
     <t>F79749280521</t>
-  </si>
-  <si>
-    <t>21464/478507</t>
   </si>
   <si>
     <t>F91311050721</t>
@@ -351,18 +337,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -392,17 +372,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -736,15 +725,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B103"/>
+  <dimension ref="A1:B87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72:XFD72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -757,7 +747,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -765,55 +755,55 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>3</v>
@@ -821,7 +811,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>3</v>
@@ -829,7 +819,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>3</v>
@@ -837,7 +827,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>3</v>
@@ -845,34 +835,34 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -880,63 +870,63 @@
         <v>75</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -944,60 +934,60 @@
         <v>62</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>3</v>
@@ -1005,7 +995,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>94</v>
@@ -1013,191 +1003,191 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B42" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>96</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>96</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>85</v>
+      <c r="B49" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>85</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>67</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>3</v>
@@ -1205,15 +1195,15 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>3</v>
@@ -1221,7 +1211,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>3</v>
@@ -1229,31 +1219,31 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>58</v>
+      <c r="B62" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>3</v>
@@ -1261,7 +1251,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>3</v>
@@ -1269,7 +1259,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>3</v>
@@ -1277,7 +1267,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>3</v>
@@ -1285,7 +1275,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>3</v>
@@ -1293,15 +1283,15 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>3</v>
@@ -1309,7 +1299,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>3</v>
@@ -1317,266 +1307,141 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B103" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B103">
-      <sortCondition ref="A1:A103"/>
+  <autoFilter ref="A1:B87" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B87">
+      <sortCondition ref="A1:A87"/>
     </sortState>
   </autoFilter>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>